--- a/data/fb_bank_category/corpus/test.xlsx
+++ b/data/fb_bank_category/corpus/test.xlsx
@@ -19,49 +19,49 @@
     <t>text</t>
   </si>
   <si>
+    <t>SAVING</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>INTEREST RATE</t>
+  </si>
+  <si>
+    <t>SECURITY</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>PROMOTION</t>
+  </si>
+  <si>
+    <t>TRADEMARK</t>
+  </si>
+  <si>
+    <t>MONEY TRANSFER</t>
+  </si>
+  <si>
+    <t>CUSTOMER SUPPORT</t>
+  </si>
+  <si>
     <t>INTERNET BANKING</t>
   </si>
   <si>
     <t>DISCOUNT</t>
   </si>
   <si>
-    <t>CUSTOMER SUPPORT</t>
-  </si>
-  <si>
     <t>PAYMENT</t>
-  </si>
-  <si>
-    <t>LOAN</t>
-  </si>
-  <si>
-    <t>SECURITY</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>PROMOTION</t>
-  </si>
-  <si>
-    <t>ACCOUNT</t>
-  </si>
-  <si>
-    <t>CREDIT</t>
-  </si>
-  <si>
-    <t>MONEY TRANSFER</t>
-  </si>
-  <si>
-    <t>TRADEMARK</t>
-  </si>
-  <si>
-    <t>CARD</t>
-  </si>
-  <si>
-    <t>SAVING</t>
-  </si>
-  <si>
-    <t>INTEREST RATE</t>
   </si>
   <si>
     <t>Chào bạn Hùng Nguyễn Thanh, hiện tại một số chi nhánh BIDV đang thu bù phí dịch vụ BSMS của những khách hàng trước đó có đăng ký nhưng chưa thu được. Do vấn đề bảo mật, Anh Cố Vấn chưa kiểm tra được tình trạng dịch vụ qua Mạng xã hội, bạn vui lòng liên hệ HotLine BIDV theo số 19009247 / 024.22200588 hoặc gửi email tới địa chỉ bidv247@bidv.com.vn để kiểm tra và xử lý nhé. Cảm ơn bạn!</t>
@@ -2000,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2036,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2762,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2812,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3236,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -5271,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -5503,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -5539,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -5586,13 +5586,13 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>95</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5989,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -6106,13 +6106,13 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>102</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -6762,13 +6762,13 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -8271,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -8371,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>146</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>150</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>151</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>152</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>153</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>154</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -9100,10 +9100,10 @@
         <v>158</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -9124,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>163</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>164</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -9700,7 +9700,7 @@
         <v>170</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O156" t="n">
         <v>0</v>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>173</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O159" t="n">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>175</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" t="n">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>176</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>177</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" t="n">
         <v>0</v>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>180</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" t="n">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O167" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O168" t="n">
         <v>0</v>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -10450,7 +10450,7 @@
         <v>185</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -10486,10 +10486,10 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O172" t="n">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>187</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O173" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>188</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O174" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O175" t="n">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O176" t="n">
         <v>0</v>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O177" t="n">
         <v>0</v>
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O178" t="n">
         <v>0</v>
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O180" t="n">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O181" t="n">
         <v>0</v>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O182" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O183" t="n">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O184" t="n">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -11186,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O185" t="n">
         <v>0</v>
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -11233,10 +11233,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O186" t="n">
         <v>0</v>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O187" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>202</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O188" t="n">
         <v>0</v>
@@ -11350,10 +11350,10 @@
         <v>203</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O189" t="n">
         <v>0</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O190" t="n">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O191" t="n">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>206</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11536,13 +11536,13 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
       <c r="P192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11550,7 +11550,7 @@
         <v>207</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193" t="n">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>208</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" t="n">
         <v>0</v>
@@ -11650,7 +11650,7 @@
         <v>209</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -11686,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" t="n">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>210</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" t="n">
         <v>0</v>
@@ -11750,7 +11750,7 @@
         <v>211</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O197" t="n">
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O198" t="n">
         <v>0</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O199" t="n">
         <v>0</v>
@@ -11900,7 +11900,7 @@
         <v>214</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O200" t="n">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>215</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="N201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O201" t="n">
         <v>0</v>
@@ -12000,7 +12000,7 @@
         <v>216</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O202" t="n">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="M203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N203" t="n">
         <v>0</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" t="n">
         <v>0</v>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -12233,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206" t="n">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>222</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="N208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208" t="n">
         <v>0</v>
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N209" t="n">
         <v>0</v>
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210" t="n">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -12503,10 +12503,10 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N212" t="n">
         <v>0</v>
@@ -12550,7 +12550,7 @@
         <v>227</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O213" t="n">
         <v>0</v>
@@ -12600,7 +12600,7 @@
         <v>228</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="N214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O214" t="n">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>229</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215" t="n">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>230</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O216" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>231</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>0</v>
       </c>
       <c r="N217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O217" t="n">
         <v>0</v>
@@ -12800,7 +12800,7 @@
         <v>232</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O218" t="n">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>233</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O219" t="n">
         <v>0</v>
@@ -12900,7 +12900,7 @@
         <v>234</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -12983,10 +12983,10 @@
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
@@ -13006,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
@@ -13021,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -13033,10 +13033,10 @@
         <v>0</v>
       </c>
       <c r="M222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O222" t="n">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O225" t="n">
         <v>0</v>
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -13236,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O226" t="n">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>241</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>242</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -13350,7 +13350,7 @@
         <v>243</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -13400,7 +13400,7 @@
         <v>244</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O231" t="n">
         <v>0</v>
@@ -13500,7 +13500,7 @@
         <v>246</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O232" t="n">
         <v>0</v>
@@ -13606,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N234" t="n">
         <v>0</v>
@@ -13656,7 +13656,7 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N235" t="n">
         <v>0</v>
@@ -13700,7 +13700,7 @@
         <v>250</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O236" t="n">
         <v>0</v>
@@ -13750,13 +13750,13 @@
         <v>251</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -13783,10 +13783,10 @@
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O237" t="n">
         <v>0</v>
@@ -13800,7 +13800,7 @@
         <v>252</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O238" t="n">
         <v>0</v>
@@ -13862,13 +13862,13 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -13900,7 +13900,7 @@
         <v>254</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O240" t="n">
         <v>0</v>
@@ -13950,7 +13950,7 @@
         <v>255</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -13986,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O241" t="n">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>256</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -14036,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O242" t="n">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>257</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="N243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O243" t="n">
         <v>0</v>
@@ -14100,7 +14100,7 @@
         <v>258</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O244" t="n">
         <v>0</v>
@@ -14150,7 +14150,7 @@
         <v>259</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -14186,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="N245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O245" t="n">
         <v>0</v>
@@ -14203,10 +14203,10 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -14233,13 +14233,13 @@
         <v>0</v>
       </c>
       <c r="M246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N246" t="n">
         <v>0</v>
       </c>
       <c r="O246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P246" t="n">
         <v>0</v>
@@ -14262,13 +14262,13 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -14312,13 +14312,13 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -14362,13 +14362,13 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -14412,13 +14412,13 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -14462,13 +14462,13 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -14512,13 +14512,13 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -14562,13 +14562,13 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -14612,13 +14612,13 @@
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -14662,13 +14662,13 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -14712,13 +14712,13 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14762,13 +14762,13 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N258" t="n">
         <v>0</v>
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -14883,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="M259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N259" t="n">
         <v>0</v>
@@ -14906,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="M260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N260" t="n">
         <v>0</v>
@@ -14956,19 +14956,19 @@
         <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N261" t="n">
         <v>0</v>
@@ -15006,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E262" t="n">
         <v>0</v>
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="M262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N262" t="n">
         <v>0</v>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="M263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N263" t="n">
         <v>0</v>
@@ -15106,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="M264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N264" t="n">
         <v>0</v>
@@ -15162,13 +15162,13 @@
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -15212,13 +15212,13 @@
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -15250,7 +15250,7 @@
         <v>281</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="O267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P267" t="n">
         <v>0</v>
@@ -15300,7 +15300,7 @@
         <v>282</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="O268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P268" t="n">
         <v>0</v>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269" t="n">
         <v>0</v>
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="M269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N269" t="n">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N270" t="n">
         <v>0</v>
@@ -15462,13 +15462,13 @@
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -15512,13 +15512,13 @@
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="M273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N273" t="n">
         <v>0</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
@@ -15633,7 +15633,7 @@
         <v>0</v>
       </c>
       <c r="M274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N274" t="n">
         <v>0</v>
@@ -15656,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="M275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N275" t="n">
         <v>0</v>
@@ -15712,13 +15712,13 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -15762,13 +15762,13 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="M278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N278" t="n">
         <v>0</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279" t="n">
         <v>0</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="M279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N279" t="n">
         <v>0</v>
@@ -16077,13 +16077,13 @@
         <v>0</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L283" t="n">
         <v>0</v>
       </c>
       <c r="M283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N283" t="n">
         <v>0</v>
@@ -16127,13 +16127,13 @@
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L284" t="n">
         <v>0</v>
       </c>
       <c r="M284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N284" t="n">
         <v>0</v>
@@ -16177,13 +16177,13 @@
         <v>0</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L285" t="n">
         <v>0</v>
       </c>
       <c r="M285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N285" t="n">
         <v>0</v>
@@ -16227,13 +16227,13 @@
         <v>0</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L286" t="n">
         <v>0</v>
       </c>
       <c r="M286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N286" t="n">
         <v>0</v>
@@ -16250,10 +16250,10 @@
         <v>300</v>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -16286,10 +16286,10 @@
         <v>0</v>
       </c>
       <c r="N287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P287" t="n">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>301</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="N288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O288" t="n">
         <v>0</v>
@@ -16350,7 +16350,7 @@
         <v>302</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="N289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O289" t="n">
         <v>0</v>
@@ -16400,7 +16400,7 @@
         <v>303</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -16436,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="N290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O290" t="n">
         <v>0</v>
@@ -16450,7 +16450,7 @@
         <v>304</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="N291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O291" t="n">
         <v>0</v>
@@ -16512,13 +16512,13 @@
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" t="n">
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -16562,13 +16562,13 @@
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -16600,7 +16600,7 @@
         <v>307</v>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="N294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O294" t="n">
         <v>0</v>
@@ -16650,7 +16650,7 @@
         <v>308</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -16686,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="N295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O295" t="n">
         <v>0</v>
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="N296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O296" t="n">
         <v>0</v>
@@ -16771,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
@@ -16786,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O297" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
         <v>311</v>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="N298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O298" t="n">
         <v>0</v>
@@ -16850,7 +16850,7 @@
         <v>312</v>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="N299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O299" t="n">
         <v>0</v>
@@ -16900,7 +16900,7 @@
         <v>313</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="N300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O300" t="n">
         <v>0</v>
@@ -16950,7 +16950,7 @@
         <v>314</v>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O301" t="n">
         <v>0</v>
@@ -17000,7 +17000,7 @@
         <v>315</v>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -17036,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="N302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O302" t="n">
         <v>0</v>
@@ -17050,7 +17050,7 @@
         <v>316</v>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -17086,7 +17086,7 @@
         <v>0</v>
       </c>
       <c r="N303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O303" t="n">
         <v>0</v>
@@ -17100,7 +17100,7 @@
         <v>317</v>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -17136,7 +17136,7 @@
         <v>0</v>
       </c>
       <c r="N304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O304" t="n">
         <v>0</v>
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="E305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="P305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -17206,10 +17206,10 @@
         <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="M306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N306" t="n">
         <v>0</v>
@@ -17242,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="P306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -17250,7 +17250,7 @@
         <v>320</v>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="N307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O307" t="n">
         <v>0</v>
@@ -17300,7 +17300,7 @@
         <v>321</v>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="N308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O308" t="n">
         <v>0</v>
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P309" t="n">
         <v>0</v>
@@ -17403,7 +17403,7 @@
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310" t="n">
         <v>0</v>
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="O310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P310" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="O311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P311" t="n">
         <v>0</v>
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" t="n">
         <v>0</v>
@@ -17536,13 +17536,13 @@
         <v>0</v>
       </c>
       <c r="N312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O312" t="n">
         <v>0</v>
       </c>
       <c r="P312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="n">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="N313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O313" t="n">
         <v>0</v>
@@ -17621,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" t="n">
         <v>0</v>
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="N314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O314" t="n">
         <v>0</v>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" t="n">
         <v>0</v>
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="N315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O315" t="n">
         <v>0</v>
@@ -17721,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" t="n">
         <v>0</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="N316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O316" t="n">
         <v>0</v>
@@ -17771,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" t="n">
         <v>0</v>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="N317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O317" t="n">
         <v>0</v>
@@ -17803,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="O318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P318" t="n">
         <v>0</v>
@@ -17871,7 +17871,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" t="n">
         <v>0</v>
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="N319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O319" t="n">
         <v>0</v>
@@ -17921,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="n">
         <v>0</v>
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="N320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O320" t="n">
         <v>0</v>
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" t="n">
         <v>0</v>
@@ -17986,7 +17986,7 @@
         <v>0</v>
       </c>
       <c r="N321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O321" t="n">
         <v>0</v>
@@ -18003,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -18039,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="O322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P322" t="n">
         <v>0</v>
@@ -18059,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -18100,10 +18100,10 @@
         <v>337</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
         <v>0</v>
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325" t="n">
         <v>0</v>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="O325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P325" t="n">
         <v>0</v>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
         <v>0</v>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="O326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P326" t="n">
         <v>0</v>
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="n">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="N327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O327" t="n">
         <v>0</v>
@@ -18306,7 +18306,7 @@
         <v>0</v>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>0</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N328" t="n">
         <v>0</v>
@@ -18371,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="n">
         <v>0</v>
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="N329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O329" t="n">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D331" t="n">
         <v>0</v>
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="O331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P331" t="n">
         <v>0</v>
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332" t="n">
         <v>0</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="O332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P332" t="n">
         <v>0</v>
@@ -18550,7 +18550,7 @@
         <v>346</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -18589,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="O333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P333" t="n">
         <v>0</v>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -18659,7 +18659,7 @@
         <v>0</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -18668,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -18700,7 +18700,7 @@
         <v>349</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -18736,7 +18736,7 @@
         <v>0</v>
       </c>
       <c r="N336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O336" t="n">
         <v>0</v>
@@ -18750,7 +18750,7 @@
         <v>350</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="N337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O337" t="n">
         <v>0</v>
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K338" t="n">
         <v>0</v>
@@ -18853,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -18874,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K339" t="n">
         <v>0</v>
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D340" t="n">
         <v>0</v>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K340" t="n">
         <v>0</v>
@@ -18953,13 +18953,13 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341" t="n">
         <v>0</v>
       </c>
       <c r="E341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
@@ -18989,10 +18989,10 @@
         <v>0</v>
       </c>
       <c r="O341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -19003,13 +19003,13 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -19039,10 +19039,10 @@
         <v>0</v>
       </c>
       <c r="O342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -19059,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="E343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -19092,7 +19092,7 @@
         <v>0</v>
       </c>
       <c r="P343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -19109,7 +19109,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -19142,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="P344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="n">
         <v>0</v>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="N345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O345" t="n">
         <v>0</v>
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="P346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -19253,13 +19253,13 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
       </c>
       <c r="E347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -19289,10 +19289,10 @@
         <v>0</v>
       </c>
       <c r="O347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -19342,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="P348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19359,7 +19359,7 @@
         <v>0</v>
       </c>
       <c r="E349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="P349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19421,10 +19421,10 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K350" t="n">
         <v>0</v>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" t="n">
         <v>0</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="N351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O351" t="n">
         <v>0</v>
@@ -19521,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" t="n">
         <v>0</v>
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
       <c r="N352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O352" t="n">
         <v>0</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="n">
         <v>0</v>
@@ -19586,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="N353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O353" t="n">
         <v>0</v>
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="n">
         <v>0</v>
@@ -19636,7 +19636,7 @@
         <v>0</v>
       </c>
       <c r="N354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O354" t="n">
         <v>0</v>
@@ -19671,7 +19671,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="n">
         <v>0</v>
@@ -19686,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="N355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O355" t="n">
         <v>0</v>
@@ -19721,7 +19721,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="n">
         <v>0</v>
@@ -19736,7 +19736,7 @@
         <v>0</v>
       </c>
       <c r="N356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O356" t="n">
         <v>0</v>
@@ -19771,7 +19771,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="n">
         <v>0</v>
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="N357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O357" t="n">
         <v>0</v>
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
       <c r="O358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P358" t="n">
         <v>0</v>
@@ -19850,10 +19850,10 @@
         <v>372</v>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K359" t="n">
         <v>0</v>
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="N359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O359" t="n">
         <v>0</v>
@@ -19903,7 +19903,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K360" t="n">
         <v>0</v>
@@ -19950,7 +19950,7 @@
         <v>374</v>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -19986,7 +19986,7 @@
         <v>0</v>
       </c>
       <c r="N361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O361" t="n">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E362" t="n">
         <v>0</v>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="M362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N362" t="n">
         <v>0</v>
@@ -20050,7 +20050,7 @@
         <v>376</v>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -20086,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="N363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O363" t="n">
         <v>0</v>
@@ -20100,7 +20100,7 @@
         <v>377</v>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -20136,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="N364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O364" t="n">
         <v>0</v>
@@ -20150,7 +20150,7 @@
         <v>378</v>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -20189,7 +20189,7 @@
         <v>0</v>
       </c>
       <c r="O365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P365" t="n">
         <v>0</v>
@@ -20200,7 +20200,7 @@
         <v>379</v>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="O366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P366" t="n">
         <v>0</v>
@@ -20250,7 +20250,7 @@
         <v>380</v>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="N367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O367" t="n">
         <v>0</v>
@@ -20300,7 +20300,7 @@
         <v>381</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -20336,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="N368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O368" t="n">
         <v>0</v>
@@ -20350,7 +20350,7 @@
         <v>382</v>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="O369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P369" t="n">
         <v>0</v>
@@ -20427,13 +20427,13 @@
         <v>0</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L370" t="n">
         <v>0</v>
       </c>
       <c r="M370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N370" t="n">
         <v>0</v>
@@ -20471,10 +20471,10 @@
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K371" t="n">
         <v>0</v>
@@ -20500,7 +20500,7 @@
         <v>385</v>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="O372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P372" t="n">
         <v>0</v>
@@ -20550,10 +20550,10 @@
         <v>386</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D373" t="n">
         <v>0</v>
@@ -20600,7 +20600,7 @@
         <v>387</v>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -20639,7 +20639,7 @@
         <v>0</v>
       </c>
       <c r="O374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P374" t="n">
         <v>0</v>
@@ -20662,13 +20662,13 @@
         <v>0</v>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -20712,13 +20712,13 @@
         <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D377" t="n">
         <v>0</v>
@@ -20789,7 +20789,7 @@
         <v>0</v>
       </c>
       <c r="O377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P377" t="n">
         <v>0</v>
@@ -20803,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D378" t="n">
         <v>0</v>
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="O378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P378" t="n">
         <v>0</v>
@@ -20853,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D379" t="n">
         <v>0</v>
@@ -20889,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="O379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P379" t="n">
         <v>0</v>
@@ -20921,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="n">
         <v>0</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="N380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O380" t="n">
         <v>0</v>
@@ -20962,13 +20962,13 @@
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -21012,13 +21012,13 @@
         <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -21071,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383" t="n">
         <v>0</v>
@@ -21086,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="N383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O383" t="n">
         <v>0</v>
@@ -21103,7 +21103,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
@@ -21139,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="O384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P384" t="n">
         <v>0</v>
@@ -21153,7 +21153,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D385" t="n">
         <v>0</v>
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="O385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P385" t="n">
         <v>0</v>
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D386" t="n">
         <v>0</v>
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="O386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P386" t="n">
         <v>0</v>
@@ -21253,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D387" t="n">
         <v>0</v>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="O387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P387" t="n">
         <v>0</v>
@@ -21303,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
@@ -21339,7 +21339,7 @@
         <v>0</v>
       </c>
       <c r="O388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P388" t="n">
         <v>0</v>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D389" t="n">
         <v>0</v>
@@ -21389,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="O389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P389" t="n">
         <v>0</v>
@@ -21412,13 +21412,13 @@
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -21462,13 +21462,13 @@
         <v>0</v>
       </c>
       <c r="F391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -21512,13 +21512,13 @@
         <v>0</v>
       </c>
       <c r="F392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G392" t="n">
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -21562,13 +21562,13 @@
         <v>0</v>
       </c>
       <c r="F393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -21603,7 +21603,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D394" t="n">
         <v>0</v>
@@ -21639,7 +21639,7 @@
         <v>0</v>
       </c>
       <c r="O394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P394" t="n">
         <v>0</v>
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="O395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P395" t="n">
         <v>0</v>
@@ -21703,7 +21703,7 @@
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -21739,7 +21739,7 @@
         <v>0</v>
       </c>
       <c r="O396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P396" t="n">
         <v>0</v>
@@ -21753,7 +21753,7 @@
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -21789,7 +21789,7 @@
         <v>0</v>
       </c>
       <c r="O397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P397" t="n">
         <v>0</v>
@@ -21806,7 +21806,7 @@
         <v>0</v>
       </c>
       <c r="D398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E398" t="n">
         <v>0</v>
@@ -21833,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="M398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N398" t="n">
         <v>0</v>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -21889,7 +21889,7 @@
         <v>0</v>
       </c>
       <c r="O399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P399" t="n">
         <v>0</v>
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
@@ -21939,7 +21939,7 @@
         <v>0</v>
       </c>
       <c r="O400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P400" t="n">
         <v>0</v>
@@ -21953,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
@@ -21989,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="O401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P401" t="n">
         <v>0</v>
@@ -22003,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D402" t="n">
         <v>0</v>
@@ -22039,7 +22039,7 @@
         <v>0</v>
       </c>
       <c r="O402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P402" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403" t="n">
         <v>0</v>
@@ -22089,7 +22089,7 @@
         <v>0</v>
       </c>
       <c r="O403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P403" t="n">
         <v>0</v>
@@ -22103,7 +22103,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
@@ -22139,7 +22139,7 @@
         <v>0</v>
       </c>
       <c r="O404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P404" t="n">
         <v>0</v>
@@ -22153,7 +22153,7 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405" t="n">
         <v>0</v>
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="O405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P405" t="n">
         <v>0</v>
@@ -22203,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D406" t="n">
         <v>0</v>
@@ -22239,7 +22239,7 @@
         <v>0</v>
       </c>
       <c r="O406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P406" t="n">
         <v>0</v>
@@ -22253,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407" t="n">
         <v>0</v>
@@ -22289,7 +22289,7 @@
         <v>0</v>
       </c>
       <c r="O407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P407" t="n">
         <v>0</v>
@@ -22303,7 +22303,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D408" t="n">
         <v>0</v>
@@ -22339,7 +22339,7 @@
         <v>0</v>
       </c>
       <c r="O408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P408" t="n">
         <v>0</v>
@@ -22353,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409" t="n">
         <v>0</v>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
       <c r="O409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P409" t="n">
         <v>0</v>
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D410" t="n">
         <v>0</v>
@@ -22439,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="O410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P410" t="n">
         <v>0</v>
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D411" t="n">
         <v>0</v>
@@ -22489,7 +22489,7 @@
         <v>0</v>
       </c>
       <c r="O411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P411" t="n">
         <v>0</v>
@@ -22503,7 +22503,7 @@
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D412" t="n">
         <v>0</v>
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="O412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P412" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="O413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P413" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D414" t="n">
         <v>0</v>
@@ -22639,7 +22639,7 @@
         <v>0</v>
       </c>
       <c r="O414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P414" t="n">
         <v>0</v>
@@ -22653,7 +22653,7 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415" t="n">
         <v>0</v>
@@ -22689,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="O415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P415" t="n">
         <v>0</v>
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D416" t="n">
         <v>0</v>
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="O416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P416" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417" t="n">
         <v>0</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="O417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P417" t="n">
         <v>0</v>
@@ -22803,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D418" t="n">
         <v>0</v>
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="O418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P418" t="n">
         <v>0</v>
@@ -22853,7 +22853,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D419" t="n">
         <v>0</v>
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="O419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P419" t="n">
         <v>0</v>
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D420" t="n">
         <v>0</v>
@@ -22939,7 +22939,7 @@
         <v>0</v>
       </c>
       <c r="O420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P420" t="n">
         <v>0</v>
@@ -22953,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D421" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="O421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P421" t="n">
         <v>0</v>
@@ -23003,7 +23003,7 @@
         <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D422" t="n">
         <v>0</v>
@@ -23039,7 +23039,7 @@
         <v>0</v>
       </c>
       <c r="O422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P422" t="n">
         <v>0</v>
@@ -23053,10 +23053,10 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E423" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="M423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N423" t="n">
         <v>0</v>
       </c>
       <c r="O423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P423" t="n">
         <v>0</v>
@@ -23103,7 +23103,7 @@
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424" t="n">
         <v>0</v>
@@ -23136,10 +23136,10 @@
         <v>0</v>
       </c>
       <c r="N424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P424" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>438</v>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" t="n">
         <v>0</v>
@@ -23171,7 +23171,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425" t="n">
         <v>0</v>
@@ -23189,7 +23189,7 @@
         <v>1</v>
       </c>
       <c r="O425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P425" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>439</v>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -23236,7 +23236,7 @@
         <v>0</v>
       </c>
       <c r="N426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O426" t="n">
         <v>0</v>
@@ -23259,7 +23259,7 @@
         <v>0</v>
       </c>
       <c r="E427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F427" t="n">
         <v>0</v>
@@ -23268,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="J428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K428" t="n">
         <v>0</v>
@@ -23353,7 +23353,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D429" t="n">
         <v>0</v>
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K429" t="n">
         <v>0</v>
@@ -23400,7 +23400,7 @@
         <v>443</v>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="N430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O430" t="n">
         <v>0</v>
@@ -23450,7 +23450,7 @@
         <v>444</v>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -23486,7 +23486,7 @@
         <v>0</v>
       </c>
       <c r="N431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O431" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>445</v>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="N432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O432" t="n">
         <v>0</v>
@@ -23553,7 +23553,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D433" t="n">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K433" t="n">
         <v>0</v>
@@ -23606,7 +23606,7 @@
         <v>0</v>
       </c>
       <c r="D434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E434" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="M434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N434" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F436" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -23753,10 +23753,10 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="M437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N437" t="n">
         <v>0</v>
       </c>
       <c r="O437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P437" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D438" t="n">
         <v>0</v>
@@ -23824,7 +23824,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K438" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="D439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E439" t="n">
         <v>0</v>
@@ -23883,7 +23883,7 @@
         <v>0</v>
       </c>
       <c r="M439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N439" t="n">
         <v>0</v>
@@ -23903,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D440" t="n">
         <v>0</v>
@@ -23939,7 +23939,7 @@
         <v>0</v>
       </c>
       <c r="O440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P440" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D441" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="O441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P441" t="n">
         <v>0</v>
@@ -24003,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442" t="n">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="O442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P442" t="n">
         <v>0</v>
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="D443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E443" t="n">
         <v>0</v>
@@ -24083,7 +24083,7 @@
         <v>0</v>
       </c>
       <c r="M443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N443" t="n">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         <v>457</v>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="N444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O444" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>458</v>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="N445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O445" t="n">
         <v>0</v>
@@ -24200,7 +24200,7 @@
         <v>459</v>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -24236,7 +24236,7 @@
         <v>0</v>
       </c>
       <c r="N446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O446" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="D447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E447" t="n">
         <v>0</v>
@@ -24283,7 +24283,7 @@
         <v>0</v>
       </c>
       <c r="M447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N447" t="n">
         <v>0</v>
@@ -24306,7 +24306,7 @@
         <v>0</v>
       </c>
       <c r="D448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E448" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="M448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N448" t="n">
         <v>0</v>
@@ -24356,7 +24356,7 @@
         <v>0</v>
       </c>
       <c r="D449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E449" t="n">
         <v>0</v>
@@ -24383,7 +24383,7 @@
         <v>0</v>
       </c>
       <c r="M449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N449" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K450" t="n">
         <v>0</v>
@@ -24439,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="O450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P450" t="n">
         <v>0</v>
@@ -24453,7 +24453,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D451" t="n">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="O451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P451" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E452" t="n">
         <v>0</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="M452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N452" t="n">
         <v>0</v>
       </c>
       <c r="O452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P452" t="n">
         <v>0</v>
@@ -24571,7 +24571,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" t="n">
         <v>0</v>
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="N453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O453" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
@@ -24633,7 +24633,7 @@
         <v>0</v>
       </c>
       <c r="M454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N454" t="n">
         <v>0</v>
@@ -24671,7 +24671,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="N455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O455" t="n">
         <v>0</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D456" t="n">
         <v>0</v>
@@ -24721,10 +24721,10 @@
         <v>0</v>
       </c>
       <c r="I456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K456" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="N456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O456" t="n">
         <v>0</v>
@@ -24750,7 +24750,7 @@
         <v>470</v>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -24786,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="N457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O457" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" t="n">
         <v>0</v>
@@ -24836,7 +24836,7 @@
         <v>0</v>
       </c>
       <c r="N458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O458" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>472</v>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="N459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O459" t="n">
         <v>0</v>
@@ -24909,7 +24909,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F460" t="n">
         <v>0</v>
@@ -24918,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D461" t="n">
         <v>0</v>
@@ -24989,7 +24989,7 @@
         <v>0</v>
       </c>
       <c r="O461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P461" t="n">
         <v>0</v>
@@ -25003,7 +25003,7 @@
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D462" t="n">
         <v>0</v>
@@ -25039,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="O462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P462" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>0</v>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F463" t="n">
         <v>0</v>
@@ -25068,7 +25068,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F464" t="n">
         <v>0</v>
@@ -25118,7 +25118,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D465" t="n">
         <v>0</v>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="O465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P465" t="n">
         <v>0</v>
@@ -25203,7 +25203,7 @@
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D466" t="n">
         <v>0</v>
@@ -25224,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K466" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D467" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="O467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P467" t="n">
         <v>0</v>
@@ -25303,10 +25303,10 @@
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E468" t="n">
         <v>0</v>
@@ -25333,13 +25333,13 @@
         <v>0</v>
       </c>
       <c r="M468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N468" t="n">
         <v>0</v>
       </c>
       <c r="O468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P468" t="n">
         <v>0</v>
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
@@ -25389,7 +25389,7 @@
         <v>0</v>
       </c>
       <c r="O469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P469" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D470" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="O470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P470" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D471" t="n">
         <v>0</v>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="O471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P471" t="n">
         <v>0</v>
@@ -25506,7 +25506,7 @@
         <v>0</v>
       </c>
       <c r="D472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E472" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="M472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N472" t="n">
         <v>0</v>
@@ -25559,7 +25559,7 @@
         <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473" t="n">
         <v>0</v>
@@ -25568,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D474" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="O474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P474" t="n">
         <v>0</v>
@@ -25650,10 +25650,10 @@
         <v>488</v>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
@@ -25700,7 +25700,7 @@
         <v>489</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -25739,7 +25739,7 @@
         <v>0</v>
       </c>
       <c r="O476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P476" t="n">
         <v>0</v>
@@ -25750,7 +25750,7 @@
         <v>490</v>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="O477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P477" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>491</v>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="O478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P478" t="n">
         <v>0</v>
@@ -25850,10 +25850,10 @@
         <v>492</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D479" t="n">
         <v>0</v>
@@ -25903,7 +25903,7 @@
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="O480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P480" t="n">
         <v>0</v>
@@ -25956,7 +25956,7 @@
         <v>0</v>
       </c>
       <c r="D481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E481" t="n">
         <v>0</v>
@@ -25983,7 +25983,7 @@
         <v>0</v>
       </c>
       <c r="M481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N481" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="D482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E482" t="n">
         <v>0</v>
@@ -26033,7 +26033,7 @@
         <v>0</v>
       </c>
       <c r="M482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N482" t="n">
         <v>0</v>
@@ -26062,13 +26062,13 @@
         <v>0</v>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G483" t="n">
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -26121,10 +26121,10 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K484" t="n">
         <v>0</v>
@@ -26150,7 +26150,7 @@
         <v>498</v>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -26171,10 +26171,10 @@
         <v>0</v>
       </c>
       <c r="I485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K485" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="O485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P485" t="n">
         <v>0</v>
@@ -26212,13 +26212,13 @@
         <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G486" t="n">
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -26262,13 +26262,13 @@
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G487" t="n">
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -26309,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F488" t="n">
         <v>0</v>
@@ -26318,7 +26318,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -26353,7 +26353,7 @@
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D489" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="O489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P489" t="n">
         <v>0</v>
@@ -26571,7 +26571,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J493" t="n">
         <v>0</v>
@@ -26586,7 +26586,7 @@
         <v>0</v>
       </c>
       <c r="N493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O493" t="n">
         <v>0</v>
@@ -26656,7 +26656,7 @@
         <v>0</v>
       </c>
       <c r="D495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E495" t="n">
         <v>0</v>
@@ -26683,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="M495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N495" t="n">
         <v>0</v>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="D496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E496" t="n">
         <v>0</v>
@@ -26733,7 +26733,7 @@
         <v>0</v>
       </c>
       <c r="M496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N496" t="n">
         <v>0</v>
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="D497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E497" t="n">
         <v>0</v>
@@ -26783,7 +26783,7 @@
         <v>0</v>
       </c>
       <c r="M497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N497" t="n">
         <v>0</v>
@@ -26821,7 +26821,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J498" t="n">
         <v>0</v>
@@ -26836,7 +26836,7 @@
         <v>0</v>
       </c>
       <c r="N498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O498" t="n">
         <v>0</v>
@@ -26856,7 +26856,7 @@
         <v>0</v>
       </c>
       <c r="D499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E499" t="n">
         <v>0</v>
@@ -26883,7 +26883,7 @@
         <v>0</v>
       </c>
       <c r="M499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N499" t="n">
         <v>0</v>
@@ -26900,7 +26900,7 @@
         <v>513</v>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -26936,7 +26936,7 @@
         <v>0</v>
       </c>
       <c r="N500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O500" t="n">
         <v>0</v>
@@ -26950,7 +26950,7 @@
         <v>514</v>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="N501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O501" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J502" t="n">
         <v>0</v>
@@ -27036,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="N502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O502" t="n">
         <v>0</v>
@@ -27071,7 +27071,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J503" t="n">
         <v>0</v>
@@ -27086,7 +27086,7 @@
         <v>0</v>
       </c>
       <c r="N503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O503" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>517</v>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
         <v>0</v>
@@ -27136,7 +27136,7 @@
         <v>0</v>
       </c>
       <c r="N504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O504" t="n">
         <v>0</v>
@@ -27150,7 +27150,7 @@
         <v>518</v>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -27186,7 +27186,7 @@
         <v>0</v>
       </c>
       <c r="N505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O505" t="n">
         <v>0</v>
@@ -27200,7 +27200,7 @@
         <v>519</v>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
         <v>0</v>
@@ -27236,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="N506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O506" t="n">
         <v>0</v>
@@ -27253,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D507" t="n">
         <v>0</v>
@@ -27274,7 +27274,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K507" t="n">
         <v>0</v>
@@ -27300,7 +27300,7 @@
         <v>521</v>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
         <v>0</v>
@@ -27336,7 +27336,7 @@
         <v>0</v>
       </c>
       <c r="N508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O508" t="n">
         <v>0</v>
@@ -27356,7 +27356,7 @@
         <v>0</v>
       </c>
       <c r="D509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E509" t="n">
         <v>0</v>
@@ -27383,7 +27383,7 @@
         <v>0</v>
       </c>
       <c r="M509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N509" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>523</v>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="N510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O510" t="n">
         <v>0</v>
@@ -27450,10 +27450,10 @@
         <v>524</v>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D511" t="n">
         <v>0</v>
